--- a/TimeEstimates.xlsx
+++ b/TimeEstimates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\School\DGM_3641_Game_Level_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7558B084-438A-4301-AD07-2C08834F32DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A3240E-EF76-4F72-B809-DFFD4CFB95C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5163AB12-BE5D-4E87-BCD5-0725F6E34F09}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Model List</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Outerbounds of map</t>
+  </si>
+  <si>
+    <t>Crate</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -412,6 +415,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -730,9 +748,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9710F337-3BA0-42FE-9A70-F053DA1EC4BE}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -811,7 +831,7 @@
         <v>0.33</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K41" si="0">SUM(B2:J2)</f>
+        <f t="shared" ref="K2:K42" si="0">SUM(B2:J2)</f>
         <v>5.83</v>
       </c>
     </row>
@@ -1816,93 +1836,122 @@
     </row>
     <row r="40" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="E40" s="23"/>
+      <c r="F40" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26">
+        <v>0.33</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7300000000000002</v>
+      </c>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="17">
-        <v>0.33</v>
-      </c>
-      <c r="K40" s="6">
+      <c r="B41" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="K41" s="6">
         <f t="shared" si="0"/>
         <v>1.7300000000000002</v>
       </c>
-      <c r="L40" s="6"/>
-    </row>
-    <row r="41" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B42" s="8">
         <v>2</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9">
-        <v>1</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="8">
+      <c r="C42" s="8"/>
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="8">
         <v>2</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J41" s="15">
-        <v>0.33</v>
-      </c>
-      <c r="K41" s="4">
+      <c r="G42" s="8"/>
+      <c r="H42" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J42" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="K42" s="4">
         <f t="shared" si="0"/>
         <v>5.83</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="7" t="s">
+    <row r="43" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="18">
-        <f>SUM(B2:B41)</f>
-        <v>38.766999999999989</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19">
-        <f>SUM(D2:D41)</f>
-        <v>18.950000000000014</v>
-      </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="18">
-        <f>SUM(F2:F41)</f>
-        <v>34.050000000000004</v>
-      </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19">
-        <f>SUM(H2:H41)</f>
-        <v>13.799999999999997</v>
-      </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="18">
-        <f>SUM(J2:J41)</f>
-        <v>13.200000000000001</v>
-      </c>
-      <c r="K42" s="20">
-        <f>SUM(K2:K41)</f>
-        <v>118.76699999999997</v>
-      </c>
-      <c r="L42" s="21"/>
+      <c r="B43" s="18">
+        <f>SUM(B2:B42)</f>
+        <v>39.066999999999986</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19">
+        <f>SUM(D2:D42)</f>
+        <v>19.250000000000014</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="18">
+        <f>SUM(F2:F42)</f>
+        <v>34.550000000000004</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19">
+        <f>SUM(H2:H42)</f>
+        <v>14.099999999999998</v>
+      </c>
+      <c r="I43" s="19"/>
+      <c r="J43" s="18">
+        <f>SUM(J2:J42)</f>
+        <v>13.530000000000001</v>
+      </c>
+      <c r="K43" s="20">
+        <f>SUM(K2:K42)</f>
+        <v>120.49699999999997</v>
+      </c>
+      <c r="L43" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
